--- a/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Selenium\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B4308-BBD3-4887-A588-C40E250AA89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06F411-3576-48DE-978E-5880F2351A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="8" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="6000" yWindow="3848" windowWidth="18000" windowHeight="10432" firstSheet="4" activeTab="4" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="251">
   <si>
     <t>Account#</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>6-11000</t>
   </si>
   <si>
     <t>8</t>
@@ -1306,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1325,10 +1322,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
@@ -1358,22 +1355,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
         <v>29</v>
@@ -1384,10 +1381,10 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>61</v>
@@ -1396,10 +1393,10 @@
         <v>128</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1440,34 +1437,34 @@
         <v>53</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="57">
@@ -1495,7 +1492,7 @@
     </row>
     <row r="3" spans="1:17" ht="57">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>44</v>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="3" spans="1:6" ht="85.5">
       <c r="A3" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>80</v>
@@ -1650,16 +1647,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="42.75">
       <c r="A1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1702,33 +1699,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>211</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>212</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>213</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>214</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>215</v>
-      </c>
-      <c r="G1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1749,12 +1746,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="42.75">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2003,15 +2000,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCF9E6-80A0-4CF6-9F60-DA959CA4A335}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="42.75">
+    <row r="1" spans="1:14" ht="42.75">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2046,22 +2043,16 @@
         <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2078,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2098,7 +2089,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>116</v>
@@ -2113,28 +2104,22 @@
         <v>114</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>129</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2296,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA4F45-600A-4DE9-936F-A1891E4C5250}">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:MM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="LV1" workbookViewId="0">
-      <selection activeCell="LF21" sqref="LF21"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2313,22 +2298,22 @@
   <sheetData>
     <row r="1" spans="1:351" ht="28.5">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
         <v>119</v>
@@ -2337,22 +2322,22 @@
         <v>120</v>
       </c>
       <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>170</v>
-      </c>
-      <c r="L1" t="s">
-        <v>171</v>
       </c>
       <c r="M1" t="s">
         <v>122</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O1" t="s">
         <v>123</v>
@@ -2367,40 +2352,40 @@
         <v>127</v>
       </c>
       <c r="S1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" t="s">
         <v>154</v>
       </c>
-      <c r="T1" t="s">
-        <v>155</v>
-      </c>
       <c r="U1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
         <v>29</v>
       </c>
       <c r="Z1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB1" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>176</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>177</v>
       </c>
       <c r="AE1" t="s">
         <v>90</v>
@@ -2409,31 +2394,31 @@
         <v>14</v>
       </c>
       <c r="AG1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" t="s">
         <v>178</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" t="s">
         <v>180</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>181</v>
-      </c>
       <c r="AL1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AM1" t="s">
         <v>118</v>
       </c>
       <c r="AN1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AO1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AP1" t="s">
         <v>119</v>
@@ -2442,22 +2427,22 @@
         <v>120</v>
       </c>
       <c r="AR1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT1" t="s">
         <v>169</v>
       </c>
-      <c r="AS1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>170</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>171</v>
       </c>
       <c r="AV1" t="s">
         <v>122</v>
       </c>
       <c r="AW1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AX1" t="s">
         <v>123</v>
@@ -2472,40 +2457,40 @@
         <v>127</v>
       </c>
       <c r="BB1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC1" t="s">
         <v>154</v>
       </c>
-      <c r="BC1" t="s">
-        <v>155</v>
-      </c>
       <c r="BD1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BE1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BF1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BG1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BH1" t="s">
         <v>29</v>
       </c>
       <c r="BI1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BJ1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BK1" t="s">
         <v>174</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>175</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>176</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>177</v>
       </c>
       <c r="BN1" t="s">
         <v>90</v>
@@ -2514,31 +2499,31 @@
         <v>14</v>
       </c>
       <c r="BP1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>178</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>179</v>
       </c>
-      <c r="BR1" t="s">
-        <v>180</v>
-      </c>
       <c r="BS1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BT1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BU1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BV1" t="s">
         <v>118</v>
       </c>
       <c r="BW1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BX1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BY1" t="s">
         <v>119</v>
@@ -2547,22 +2532,22 @@
         <v>120</v>
       </c>
       <c r="CA1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>170</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>171</v>
       </c>
       <c r="CE1" t="s">
         <v>122</v>
       </c>
       <c r="CF1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="CG1" t="s">
         <v>123</v>
@@ -2577,40 +2562,40 @@
         <v>127</v>
       </c>
       <c r="CK1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CL1" t="s">
         <v>154</v>
       </c>
-      <c r="CL1" t="s">
-        <v>155</v>
-      </c>
       <c r="CM1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CN1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CO1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CP1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CQ1" t="s">
         <v>29</v>
       </c>
       <c r="CR1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CS1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CT1" t="s">
         <v>174</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>175</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>176</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>177</v>
       </c>
       <c r="CW1" t="s">
         <v>90</v>
@@ -2619,31 +2604,31 @@
         <v>14</v>
       </c>
       <c r="CY1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>178</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>179</v>
       </c>
-      <c r="DA1" t="s">
-        <v>180</v>
-      </c>
       <c r="DB1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DC1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DD1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DE1" t="s">
         <v>118</v>
       </c>
       <c r="DF1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DG1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DH1" t="s">
         <v>119</v>
@@ -2652,22 +2637,22 @@
         <v>120</v>
       </c>
       <c r="DJ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DL1" t="s">
         <v>169</v>
       </c>
-      <c r="DK1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>170</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>171</v>
       </c>
       <c r="DN1" t="s">
         <v>122</v>
       </c>
       <c r="DO1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="DP1" t="s">
         <v>123</v>
@@ -2682,40 +2667,40 @@
         <v>127</v>
       </c>
       <c r="DT1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU1" t="s">
         <v>154</v>
       </c>
-      <c r="DU1" t="s">
-        <v>155</v>
-      </c>
       <c r="DV1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="DW1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DX1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DY1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DZ1" t="s">
         <v>29</v>
       </c>
       <c r="EA1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="EB1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EC1" t="s">
         <v>174</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>175</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>176</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>177</v>
       </c>
       <c r="EF1" t="s">
         <v>90</v>
@@ -2724,31 +2709,31 @@
         <v>14</v>
       </c>
       <c r="EH1" t="s">
+        <v>177</v>
+      </c>
+      <c r="EI1" t="s">
         <v>178</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>179</v>
       </c>
-      <c r="EJ1" t="s">
-        <v>180</v>
-      </c>
       <c r="EK1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="EL1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="EM1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="EN1" t="s">
         <v>118</v>
       </c>
       <c r="EO1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="EP1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EQ1" t="s">
         <v>119</v>
@@ -2757,22 +2742,22 @@
         <v>120</v>
       </c>
       <c r="ES1" t="s">
+        <v>168</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EU1" t="s">
         <v>169</v>
       </c>
-      <c r="ET1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>170</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>171</v>
       </c>
       <c r="EW1" t="s">
         <v>122</v>
       </c>
       <c r="EX1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EY1" t="s">
         <v>123</v>
@@ -2787,40 +2772,40 @@
         <v>127</v>
       </c>
       <c r="FC1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FD1" t="s">
         <v>154</v>
       </c>
-      <c r="FD1" t="s">
-        <v>155</v>
-      </c>
       <c r="FE1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="FF1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="FG1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="FH1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="FI1" t="s">
         <v>29</v>
       </c>
       <c r="FJ1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="FK1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FL1" t="s">
         <v>174</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>175</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>176</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>177</v>
       </c>
       <c r="FO1" t="s">
         <v>90</v>
@@ -2829,31 +2814,31 @@
         <v>14</v>
       </c>
       <c r="FQ1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR1" t="s">
         <v>178</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>179</v>
       </c>
-      <c r="FS1" t="s">
-        <v>180</v>
-      </c>
       <c r="FT1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="FU1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="FV1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="FW1" t="s">
         <v>118</v>
       </c>
       <c r="FX1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="FY1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="FZ1" t="s">
         <v>119</v>
@@ -2862,22 +2847,22 @@
         <v>120</v>
       </c>
       <c r="GB1" t="s">
+        <v>168</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>146</v>
+      </c>
+      <c r="GD1" t="s">
         <v>169</v>
       </c>
-      <c r="GC1" t="s">
-        <v>147</v>
-      </c>
-      <c r="GD1" t="s">
+      <c r="GE1" t="s">
         <v>170</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>171</v>
       </c>
       <c r="GF1" t="s">
         <v>122</v>
       </c>
       <c r="GG1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="GH1" t="s">
         <v>123</v>
@@ -2892,40 +2877,40 @@
         <v>127</v>
       </c>
       <c r="GL1" t="s">
+        <v>153</v>
+      </c>
+      <c r="GM1" t="s">
         <v>154</v>
       </c>
-      <c r="GM1" t="s">
-        <v>155</v>
-      </c>
       <c r="GN1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="GO1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="GP1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="GQ1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="GR1" t="s">
         <v>29</v>
       </c>
       <c r="GS1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="GT1" t="s">
+        <v>173</v>
+      </c>
+      <c r="GU1" t="s">
         <v>174</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GV1" t="s">
         <v>175</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GW1" t="s">
         <v>176</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>177</v>
       </c>
       <c r="GX1" t="s">
         <v>90</v>
@@ -2934,31 +2919,31 @@
         <v>14</v>
       </c>
       <c r="GZ1" t="s">
+        <v>177</v>
+      </c>
+      <c r="HA1" t="s">
         <v>178</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>179</v>
       </c>
-      <c r="HB1" t="s">
-        <v>180</v>
-      </c>
       <c r="HC1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="HD1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="HE1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="HF1" t="s">
         <v>118</v>
       </c>
       <c r="HG1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="HH1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="HI1" t="s">
         <v>119</v>
@@ -2967,22 +2952,22 @@
         <v>120</v>
       </c>
       <c r="HK1" t="s">
+        <v>168</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>146</v>
+      </c>
+      <c r="HM1" t="s">
         <v>169</v>
       </c>
-      <c r="HL1" t="s">
-        <v>147</v>
-      </c>
-      <c r="HM1" t="s">
+      <c r="HN1" t="s">
         <v>170</v>
-      </c>
-      <c r="HN1" t="s">
-        <v>171</v>
       </c>
       <c r="HO1" t="s">
         <v>122</v>
       </c>
       <c r="HP1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="HQ1" t="s">
         <v>123</v>
@@ -2997,40 +2982,40 @@
         <v>127</v>
       </c>
       <c r="HU1" t="s">
+        <v>153</v>
+      </c>
+      <c r="HV1" t="s">
         <v>154</v>
       </c>
-      <c r="HV1" t="s">
-        <v>155</v>
-      </c>
       <c r="HW1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="HX1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="HY1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="HZ1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="IA1" t="s">
         <v>29</v>
       </c>
       <c r="IB1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IC1" t="s">
+        <v>173</v>
+      </c>
+      <c r="ID1" t="s">
         <v>174</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IE1" t="s">
         <v>175</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IF1" t="s">
         <v>176</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>177</v>
       </c>
       <c r="IG1" t="s">
         <v>90</v>
@@ -3039,31 +3024,31 @@
         <v>14</v>
       </c>
       <c r="II1" t="s">
+        <v>177</v>
+      </c>
+      <c r="IJ1" t="s">
         <v>178</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>179</v>
       </c>
-      <c r="IK1" t="s">
-        <v>180</v>
-      </c>
       <c r="IL1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="IM1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="IN1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="IO1" t="s">
         <v>118</v>
       </c>
       <c r="IP1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="IQ1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="IR1" t="s">
         <v>119</v>
@@ -3072,22 +3057,22 @@
         <v>120</v>
       </c>
       <c r="IT1" t="s">
+        <v>168</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>146</v>
+      </c>
+      <c r="IV1" t="s">
         <v>169</v>
       </c>
-      <c r="IU1" t="s">
-        <v>147</v>
-      </c>
-      <c r="IV1" t="s">
+      <c r="IW1" t="s">
         <v>170</v>
-      </c>
-      <c r="IW1" t="s">
-        <v>171</v>
       </c>
       <c r="IX1" t="s">
         <v>122</v>
       </c>
       <c r="IY1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="IZ1" t="s">
         <v>123</v>
@@ -3102,40 +3087,40 @@
         <v>127</v>
       </c>
       <c r="JD1" t="s">
+        <v>153</v>
+      </c>
+      <c r="JE1" t="s">
         <v>154</v>
       </c>
-      <c r="JE1" t="s">
-        <v>155</v>
-      </c>
       <c r="JF1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="JG1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="JH1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="JI1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="JJ1" t="s">
         <v>29</v>
       </c>
       <c r="JK1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="JL1" t="s">
+        <v>173</v>
+      </c>
+      <c r="JM1" t="s">
         <v>174</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JN1" t="s">
         <v>175</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JO1" t="s">
         <v>176</v>
-      </c>
-      <c r="JO1" t="s">
-        <v>177</v>
       </c>
       <c r="JP1" t="s">
         <v>90</v>
@@ -3144,31 +3129,31 @@
         <v>14</v>
       </c>
       <c r="JR1" t="s">
+        <v>177</v>
+      </c>
+      <c r="JS1" t="s">
         <v>178</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JT1" t="s">
         <v>179</v>
       </c>
-      <c r="JT1" t="s">
-        <v>180</v>
-      </c>
       <c r="JU1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="JV1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="JW1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="JX1" t="s">
         <v>118</v>
       </c>
       <c r="JY1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="JZ1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="KA1" t="s">
         <v>119</v>
@@ -3177,22 +3162,22 @@
         <v>120</v>
       </c>
       <c r="KC1" t="s">
+        <v>168</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>146</v>
+      </c>
+      <c r="KE1" t="s">
         <v>169</v>
       </c>
-      <c r="KD1" t="s">
-        <v>147</v>
-      </c>
-      <c r="KE1" t="s">
+      <c r="KF1" t="s">
         <v>170</v>
-      </c>
-      <c r="KF1" t="s">
-        <v>171</v>
       </c>
       <c r="KG1" t="s">
         <v>122</v>
       </c>
       <c r="KH1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="KI1" t="s">
         <v>123</v>
@@ -3207,40 +3192,40 @@
         <v>127</v>
       </c>
       <c r="KM1" t="s">
+        <v>153</v>
+      </c>
+      <c r="KN1" t="s">
         <v>154</v>
       </c>
-      <c r="KN1" t="s">
-        <v>155</v>
-      </c>
       <c r="KO1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="KP1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="KQ1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="KR1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="KS1" t="s">
         <v>29</v>
       </c>
       <c r="KT1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="KU1" t="s">
+        <v>173</v>
+      </c>
+      <c r="KV1" t="s">
         <v>174</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KW1" t="s">
         <v>175</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KX1" t="s">
         <v>176</v>
-      </c>
-      <c r="KX1" t="s">
-        <v>177</v>
       </c>
       <c r="KY1" t="s">
         <v>90</v>
@@ -3249,31 +3234,31 @@
         <v>14</v>
       </c>
       <c r="LA1" t="s">
+        <v>177</v>
+      </c>
+      <c r="LB1" t="s">
         <v>178</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LC1" t="s">
         <v>179</v>
       </c>
-      <c r="LC1" t="s">
-        <v>180</v>
-      </c>
       <c r="LD1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="LE1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="LF1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="LG1" t="s">
         <v>118</v>
       </c>
       <c r="LH1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="LI1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="LJ1" t="s">
         <v>119</v>
@@ -3282,22 +3267,22 @@
         <v>120</v>
       </c>
       <c r="LL1" t="s">
+        <v>168</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>146</v>
+      </c>
+      <c r="LN1" t="s">
         <v>169</v>
       </c>
-      <c r="LM1" t="s">
-        <v>147</v>
-      </c>
-      <c r="LN1" t="s">
+      <c r="LO1" t="s">
         <v>170</v>
-      </c>
-      <c r="LO1" t="s">
-        <v>171</v>
       </c>
       <c r="LP1" t="s">
         <v>122</v>
       </c>
       <c r="LQ1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="LR1" t="s">
         <v>123</v>
@@ -3312,40 +3297,40 @@
         <v>127</v>
       </c>
       <c r="LV1" t="s">
+        <v>153</v>
+      </c>
+      <c r="LW1" t="s">
         <v>154</v>
       </c>
-      <c r="LW1" t="s">
-        <v>155</v>
-      </c>
       <c r="LX1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="LY1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="LZ1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="MA1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="MB1" t="s">
         <v>29</v>
       </c>
       <c r="MC1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="MD1" t="s">
+        <v>173</v>
+      </c>
+      <c r="ME1" t="s">
         <v>174</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MF1" t="s">
         <v>175</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MG1" t="s">
         <v>176</v>
-      </c>
-      <c r="MG1" t="s">
-        <v>177</v>
       </c>
       <c r="MH1" t="s">
         <v>90</v>
@@ -3354,16 +3339,16 @@
         <v>14</v>
       </c>
       <c r="MJ1" t="s">
+        <v>177</v>
+      </c>
+      <c r="MK1" t="s">
         <v>178</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="ML1" t="s">
         <v>179</v>
       </c>
-      <c r="ML1" t="s">
-        <v>180</v>
-      </c>
       <c r="MM1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:351">
@@ -3378,34 +3363,34 @@
         <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>121</v>
@@ -3414,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>124</v>
@@ -3429,10 +3414,10 @@
         <v>128</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>61</v>
@@ -3441,37 +3426,37 @@
         <v>28</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AL3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AM3" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP3" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP3" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AT3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AU3" s="5" t="s">
         <v>121</v>
@@ -3480,25 +3465,25 @@
         <v>19</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AX3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AZ3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB3" s="5" t="s">
         <v>91</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BD3" s="5" t="s">
         <v>61</v>
@@ -3507,37 +3492,37 @@
         <v>28</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BS3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BU3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="BV3" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BW3" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BX3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BZ3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="CA3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CC3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CD3" s="5" t="s">
         <v>121</v>
@@ -3546,25 +3531,25 @@
         <v>19</v>
       </c>
       <c r="CF3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CG3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="CH3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CI3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="CJ3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CK3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CL3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CM3" s="5" t="s">
         <v>61</v>
@@ -3573,37 +3558,37 @@
         <v>28</v>
       </c>
       <c r="CR3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DB3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="DC3" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="DD3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="DE3" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DH3" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="DF3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="DG3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="DH3" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="DI3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="DJ3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="DL3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="DM3" s="5" t="s">
         <v>121</v>
@@ -3612,7 +3597,7 @@
         <v>19</v>
       </c>
       <c r="DO3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="DP3" s="5" t="s">
         <v>124</v>
@@ -3624,13 +3609,13 @@
         <v>27</v>
       </c>
       <c r="DS3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="DT3" s="5" t="s">
         <v>91</v>
       </c>
       <c r="DU3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="DV3" s="5" t="s">
         <v>61</v>
@@ -3639,37 +3624,37 @@
         <v>28</v>
       </c>
       <c r="EA3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="EK3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="EL3" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="EM3" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EN3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="EO3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="EP3" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="EQ3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="ER3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="ES3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="EU3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EV3" s="5" t="s">
         <v>121</v>
@@ -3678,7 +3663,7 @@
         <v>19</v>
       </c>
       <c r="EX3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="EY3" s="5" t="s">
         <v>124</v>
@@ -3687,16 +3672,16 @@
         <v>18</v>
       </c>
       <c r="FA3" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="FC3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="FD3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="FE3" s="5" t="s">
         <v>61</v>
@@ -3705,37 +3690,37 @@
         <v>28</v>
       </c>
       <c r="FJ3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="FT3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="FU3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="FV3" s="5" t="s">
         <v>129</v>
       </c>
       <c r="FW3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="FX3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="FY3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ3" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="FX3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="FY3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="FZ3" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="GA3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="GB3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="GD3" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="GE3" s="5" t="s">
         <v>121</v>
@@ -3744,7 +3729,7 @@
         <v>121</v>
       </c>
       <c r="GG3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="GH3" s="5" t="s">
         <v>124</v>
@@ -3756,13 +3741,13 @@
         <v>129</v>
       </c>
       <c r="GK3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="GL3" s="5" t="s">
         <v>91</v>
       </c>
       <c r="GM3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="GN3" s="5" t="s">
         <v>61</v>
@@ -3771,37 +3756,37 @@
         <v>28</v>
       </c>
       <c r="GS3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="HC3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="HD3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="HE3" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="HF3" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="HG3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="HH3" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="HI3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="HJ3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="HK3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="HM3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="HN3" s="5" t="s">
         <v>121</v>
@@ -3819,16 +3804,16 @@
         <v>18</v>
       </c>
       <c r="HS3" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="HT3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="HU3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>61</v>
@@ -3837,37 +3822,37 @@
         <v>28</v>
       </c>
       <c r="IB3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="IL3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="IM3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="IN3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="IO3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="IP3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="IQ3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="IR3" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="IP3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="IQ3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="IR3" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="IS3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="IT3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="IV3" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="IW3" s="5" t="s">
         <v>121</v>
@@ -3885,16 +3870,16 @@
         <v>18</v>
       </c>
       <c r="JB3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="JC3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="JD3" s="5" t="s">
         <v>91</v>
       </c>
       <c r="JE3" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="JF3" s="5" t="s">
         <v>61</v>
@@ -3903,37 +3888,37 @@
         <v>28</v>
       </c>
       <c r="JK3" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="JU3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="JV3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="JW3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="JX3" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="JY3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="JZ3" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="KA3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="KB3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="KC3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="KE3" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="KF3" s="5" t="s">
         <v>121</v>
@@ -3951,16 +3936,16 @@
         <v>18</v>
       </c>
       <c r="KK3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="KL3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="KM3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="KN3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="KO3" s="5" t="s">
         <v>61</v>
@@ -3969,37 +3954,37 @@
         <v>28</v>
       </c>
       <c r="KT3" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="LD3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="LE3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="LF3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="LG3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="LH3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="LI3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="LJ3" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="LH3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="LI3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="LJ3" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="LK3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="LL3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="LN3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="LO3" s="5" t="s">
         <v>121</v>
@@ -4020,13 +4005,13 @@
         <v>61</v>
       </c>
       <c r="LU3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="LV3" s="5" t="s">
         <v>91</v>
       </c>
       <c r="LW3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="LX3" s="5" t="s">
         <v>61</v>
@@ -4035,10 +4020,24 @@
         <v>28</v>
       </c>
       <c r="MC3" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="MM3" s="15" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:351">
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="AE4">
+        <v>30</v>
+      </c>
+      <c r="AK4">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F94B4A-A72D-4AEC-BB86-F57DF2579886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC459A-9906-4459-BD4A-8CF095BF33E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1491,20 +1491,20 @@
     <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="85.5">
+      <c r="A1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4173,7 +4173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842739D-F428-48DB-A05D-D93FC3306262}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -4344,7 +4346,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4415,7 +4417,7 @@
   <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A1:A2 F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4640,7 +4642,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC459A-9906-4459-BD4A-8CF095BF33E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4D7182-78D6-43C1-A38F-C57943104DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="6" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="317">
   <si>
     <t>Fleet Expiration Year</t>
   </si>
@@ -996,7 +996,13 @@
     <t>10-78000</t>
   </si>
   <si>
-    <t>2021</t>
+    <t xml:space="preserve">3423 </t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>312</v>
@@ -1519,10 +1525,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1576,6 +1582,16 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="F11" s="5"/>
@@ -4416,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40042B2-BF90-46A5-A720-AE7134173A42}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A1:A2 F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4555,7 +4571,7 @@
     </row>
     <row r="2" spans="1:43" ht="57">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -4570,7 +4586,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
+++ b/CelticProject_Framework-main/src/test/resources/DataProvider/RWC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4D7182-78D6-43C1-A38F-C57943104DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A967B64-5072-434F-9CAA-BB9CFEEF773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="6" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="7" activeTab="11" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="336">
   <si>
     <t>Fleet Expiration Year</t>
   </si>
@@ -177,9 +177,6 @@
     <t>O - Other</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>FeeOverrideReasonComments</t>
   </si>
   <si>
@@ -975,34 +972,94 @@
     <t>24742</t>
   </si>
   <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
     <t>MCENumber</t>
   </si>
   <si>
     <t>44PM4S</t>
   </si>
   <si>
-    <t>215871</t>
-  </si>
-  <si>
-    <t>10-78000</t>
-  </si>
-  <si>
     <t xml:space="preserve">3423 </t>
   </si>
   <si>
     <t>5757</t>
   </si>
   <si>
-    <t>22</t>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>Grade Crossing Fee Waive Off</t>
+  </si>
+  <si>
+    <t>Bicentennial Fee Waive Off</t>
+  </si>
+  <si>
+    <t>Replacement Plate Fee Waive Off</t>
+  </si>
+  <si>
+    <t>Second Plate Fee Waive Off</t>
+  </si>
+  <si>
+    <t>Late Filing Penalty Waive Off</t>
+  </si>
+  <si>
+    <t>Late Pay Penalty Waive Off</t>
+  </si>
+  <si>
+    <t>Transfer Fee Waive Off</t>
+  </si>
+  <si>
+    <t>Transfer Revenue Fee Waive Off</t>
+  </si>
+  <si>
+    <t>Wire Transfer Fee Waive Off</t>
+  </si>
+  <si>
+    <t>6T3726</t>
+  </si>
+  <si>
+    <t>6T4086</t>
+  </si>
+  <si>
+    <t>6T4296</t>
+  </si>
+  <si>
+    <t>6T4226</t>
+  </si>
+  <si>
+    <t>6T4556</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>12264</t>
+  </si>
+  <si>
+    <t>100-78000</t>
+  </si>
+  <si>
+    <t>for 5757</t>
+  </si>
+  <si>
+    <t>61526</t>
+  </si>
+  <si>
+    <t>65906</t>
+  </si>
+  <si>
+    <t>67156</t>
+  </si>
+  <si>
+    <t>66926</t>
+  </si>
+  <si>
+    <t>66886</t>
+  </si>
+  <si>
+    <t>66426</t>
+  </si>
+  <si>
+    <t>65076</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1169,6 +1226,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1488,7 +1551,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1499,80 +1562,80 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="85.5">
       <c r="A1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1585,15 +1648,30 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
   </sheetData>
@@ -1620,1057 +1698,1057 @@
   <sheetData>
     <row r="1" spans="1:351" ht="28.5">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>148</v>
       </c>
-      <c r="J1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" t="s">
         <v>150</v>
-      </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" t="s">
-        <v>151</v>
       </c>
       <c r="Y1" t="s">
         <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>154</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>155</v>
       </c>
-      <c r="AD1" t="s">
-        <v>156</v>
-      </c>
       <c r="AE1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s">
         <v>9</v>
       </c>
       <c r="AG1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH1" t="s">
         <v>157</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>158</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK1" t="s">
         <v>159</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB1" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="BC1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG1" t="s">
         <v>150</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>151</v>
       </c>
       <c r="BH1" t="s">
         <v>21</v>
       </c>
       <c r="BI1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BJ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BK1" t="s">
         <v>153</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>154</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>155</v>
       </c>
-      <c r="BM1" t="s">
-        <v>156</v>
-      </c>
       <c r="BN1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>157</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>158</v>
       </c>
-      <c r="BR1" t="s">
-        <v>159</v>
-      </c>
       <c r="BS1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CK1" t="s">
         <v>132</v>
       </c>
-      <c r="BT1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD1" t="s">
+      <c r="CL1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP1" t="s">
         <v>150</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CF1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>151</v>
       </c>
       <c r="CQ1" t="s">
         <v>21</v>
       </c>
       <c r="CR1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CS1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CT1" t="s">
         <v>153</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>154</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>155</v>
       </c>
-      <c r="CV1" t="s">
-        <v>156</v>
-      </c>
       <c r="CW1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CX1" t="s">
         <v>9</v>
       </c>
       <c r="CY1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>157</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>158</v>
       </c>
-      <c r="DA1" t="s">
-        <v>159</v>
-      </c>
       <c r="DB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DO1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DT1" t="s">
         <v>132</v>
       </c>
-      <c r="DC1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DM1" t="s">
+      <c r="DU1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY1" t="s">
         <v>150</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DO1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>151</v>
       </c>
       <c r="DZ1" t="s">
         <v>21</v>
       </c>
       <c r="EA1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EB1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EC1" t="s">
         <v>153</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>154</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>155</v>
       </c>
-      <c r="EE1" t="s">
-        <v>156</v>
-      </c>
       <c r="EF1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="EG1" t="s">
         <v>9</v>
       </c>
       <c r="EH1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI1" t="s">
         <v>157</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>158</v>
       </c>
-      <c r="EJ1" t="s">
-        <v>159</v>
-      </c>
       <c r="EK1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>100</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>125</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EX1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>103</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="FC1" t="s">
         <v>132</v>
       </c>
-      <c r="EL1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>99</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>101</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>126</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" t="s">
+      <c r="FD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>130</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>113</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>151</v>
+      </c>
+      <c r="FH1" t="s">
         <v>150</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>103</v>
-      </c>
-      <c r="EX1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>107</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>108</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>133</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>134</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>131</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>114</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>152</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>151</v>
       </c>
       <c r="FI1" t="s">
         <v>21</v>
       </c>
       <c r="FJ1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FK1" t="s">
+        <v>152</v>
+      </c>
+      <c r="FL1" t="s">
         <v>153</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>154</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>155</v>
       </c>
-      <c r="FN1" t="s">
-        <v>156</v>
-      </c>
       <c r="FO1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="FP1" t="s">
         <v>9</v>
       </c>
       <c r="FQ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FR1" t="s">
         <v>157</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>158</v>
       </c>
-      <c r="FS1" t="s">
-        <v>159</v>
-      </c>
       <c r="FT1" t="s">
+        <v>131</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>98</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>144</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>146</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>147</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>125</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>148</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>149</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>102</v>
+      </c>
+      <c r="GG1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>103</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>105</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="GL1" t="s">
         <v>132</v>
       </c>
-      <c r="FU1" t="s">
-        <v>181</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>146</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>99</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>145</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>147</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>100</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>101</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>148</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>126</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>149</v>
-      </c>
-      <c r="GE1" t="s">
+      <c r="GM1" t="s">
+        <v>133</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>113</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>151</v>
+      </c>
+      <c r="GQ1" t="s">
         <v>150</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>103</v>
-      </c>
-      <c r="GG1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>104</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>106</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>107</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>108</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>133</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>134</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>131</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>114</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>152</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>151</v>
       </c>
       <c r="GR1" t="s">
         <v>21</v>
       </c>
       <c r="GS1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="GT1" t="s">
+        <v>152</v>
+      </c>
+      <c r="GU1" t="s">
         <v>153</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GV1" t="s">
         <v>154</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GW1" t="s">
         <v>155</v>
       </c>
-      <c r="GW1" t="s">
-        <v>156</v>
-      </c>
       <c r="GX1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="GY1" t="s">
         <v>9</v>
       </c>
       <c r="GZ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="HA1" t="s">
         <v>157</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>158</v>
       </c>
-      <c r="HB1" t="s">
-        <v>159</v>
-      </c>
       <c r="HC1" t="s">
+        <v>131</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>145</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>98</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>144</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>146</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>99</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>147</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>125</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>148</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>149</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>102</v>
+      </c>
+      <c r="HP1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>105</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>106</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>107</v>
+      </c>
+      <c r="HU1" t="s">
         <v>132</v>
       </c>
-      <c r="HD1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>146</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>99</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>145</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>147</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>100</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>148</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>126</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>149</v>
-      </c>
-      <c r="HN1" t="s">
+      <c r="HV1" t="s">
+        <v>133</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>130</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>113</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>151</v>
+      </c>
+      <c r="HZ1" t="s">
         <v>150</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>103</v>
-      </c>
-      <c r="HP1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>106</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>107</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>108</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>133</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>134</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>131</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>114</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>152</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>151</v>
       </c>
       <c r="IA1" t="s">
         <v>21</v>
       </c>
       <c r="IB1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="IC1" t="s">
+        <v>152</v>
+      </c>
+      <c r="ID1" t="s">
         <v>153</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IE1" t="s">
         <v>154</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IF1" t="s">
         <v>155</v>
       </c>
-      <c r="IF1" t="s">
-        <v>156</v>
-      </c>
       <c r="IG1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="IH1" t="s">
         <v>9</v>
       </c>
       <c r="II1" t="s">
+        <v>156</v>
+      </c>
+      <c r="IJ1" t="s">
         <v>157</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>158</v>
       </c>
-      <c r="IK1" t="s">
-        <v>159</v>
-      </c>
       <c r="IL1" t="s">
+        <v>131</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>217</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>145</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>98</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>144</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>99</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>100</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>147</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>125</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>148</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>149</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>102</v>
+      </c>
+      <c r="IY1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>105</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="JD1" t="s">
         <v>132</v>
       </c>
-      <c r="IM1" t="s">
-        <v>218</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>146</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>99</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="IQ1" t="s">
-        <v>147</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>100</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>101</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>148</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>126</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>149</v>
-      </c>
-      <c r="IW1" t="s">
+      <c r="JE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>130</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>113</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>151</v>
+      </c>
+      <c r="JI1" t="s">
         <v>150</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>103</v>
-      </c>
-      <c r="IY1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="IZ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>106</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>107</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>108</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>133</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>131</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>114</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>152</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>151</v>
       </c>
       <c r="JJ1" t="s">
         <v>21</v>
       </c>
       <c r="JK1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="JL1" t="s">
+        <v>152</v>
+      </c>
+      <c r="JM1" t="s">
         <v>153</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JN1" t="s">
         <v>154</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JO1" t="s">
         <v>155</v>
       </c>
-      <c r="JO1" t="s">
-        <v>156</v>
-      </c>
       <c r="JP1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="JQ1" t="s">
         <v>9</v>
       </c>
       <c r="JR1" t="s">
+        <v>156</v>
+      </c>
+      <c r="JS1" t="s">
         <v>157</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JT1" t="s">
         <v>158</v>
       </c>
-      <c r="JT1" t="s">
-        <v>159</v>
-      </c>
       <c r="JU1" t="s">
+        <v>131</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>218</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>145</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>98</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>144</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>99</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>100</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>147</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>125</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>148</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>149</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>102</v>
+      </c>
+      <c r="KH1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>103</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>106</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>107</v>
+      </c>
+      <c r="KM1" t="s">
         <v>132</v>
       </c>
-      <c r="JV1" t="s">
-        <v>219</v>
-      </c>
-      <c r="JW1" t="s">
-        <v>146</v>
-      </c>
-      <c r="JX1" t="s">
-        <v>99</v>
-      </c>
-      <c r="JY1" t="s">
-        <v>145</v>
-      </c>
-      <c r="JZ1" t="s">
-        <v>147</v>
-      </c>
-      <c r="KA1" t="s">
-        <v>100</v>
-      </c>
-      <c r="KB1" t="s">
-        <v>101</v>
-      </c>
-      <c r="KC1" t="s">
-        <v>148</v>
-      </c>
-      <c r="KD1" t="s">
-        <v>126</v>
-      </c>
-      <c r="KE1" t="s">
-        <v>149</v>
-      </c>
-      <c r="KF1" t="s">
+      <c r="KN1" t="s">
+        <v>133</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>130</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>113</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>151</v>
+      </c>
+      <c r="KR1" t="s">
         <v>150</v>
-      </c>
-      <c r="KG1" t="s">
-        <v>103</v>
-      </c>
-      <c r="KH1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="KI1" t="s">
-        <v>104</v>
-      </c>
-      <c r="KJ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="KK1" t="s">
-        <v>107</v>
-      </c>
-      <c r="KL1" t="s">
-        <v>108</v>
-      </c>
-      <c r="KM1" t="s">
-        <v>133</v>
-      </c>
-      <c r="KN1" t="s">
-        <v>134</v>
-      </c>
-      <c r="KO1" t="s">
-        <v>131</v>
-      </c>
-      <c r="KP1" t="s">
-        <v>114</v>
-      </c>
-      <c r="KQ1" t="s">
-        <v>152</v>
-      </c>
-      <c r="KR1" t="s">
-        <v>151</v>
       </c>
       <c r="KS1" t="s">
         <v>21</v>
       </c>
       <c r="KT1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="KU1" t="s">
+        <v>152</v>
+      </c>
+      <c r="KV1" t="s">
         <v>153</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KW1" t="s">
         <v>154</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KX1" t="s">
         <v>155</v>
       </c>
-      <c r="KX1" t="s">
-        <v>156</v>
-      </c>
       <c r="KY1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="KZ1" t="s">
         <v>9</v>
       </c>
       <c r="LA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="LB1" t="s">
         <v>157</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LC1" t="s">
         <v>158</v>
       </c>
-      <c r="LC1" t="s">
-        <v>159</v>
-      </c>
       <c r="LD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>219</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>145</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>144</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>146</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>100</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>147</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>125</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>148</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>149</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>102</v>
+      </c>
+      <c r="LQ1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>103</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>105</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>106</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>107</v>
+      </c>
+      <c r="LV1" t="s">
         <v>132</v>
       </c>
-      <c r="LE1" t="s">
-        <v>220</v>
-      </c>
-      <c r="LF1" t="s">
-        <v>146</v>
-      </c>
-      <c r="LG1" t="s">
-        <v>99</v>
-      </c>
-      <c r="LH1" t="s">
-        <v>145</v>
-      </c>
-      <c r="LI1" t="s">
-        <v>147</v>
-      </c>
-      <c r="LJ1" t="s">
-        <v>100</v>
-      </c>
-      <c r="LK1" t="s">
-        <v>101</v>
-      </c>
-      <c r="LL1" t="s">
-        <v>148</v>
-      </c>
-      <c r="LM1" t="s">
-        <v>126</v>
-      </c>
-      <c r="LN1" t="s">
-        <v>149</v>
-      </c>
-      <c r="LO1" t="s">
+      <c r="LW1" t="s">
+        <v>133</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>130</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>113</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>151</v>
+      </c>
+      <c r="MA1" t="s">
         <v>150</v>
-      </c>
-      <c r="LP1" t="s">
-        <v>103</v>
-      </c>
-      <c r="LQ1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="LR1" t="s">
-        <v>104</v>
-      </c>
-      <c r="LS1" t="s">
-        <v>106</v>
-      </c>
-      <c r="LT1" t="s">
-        <v>107</v>
-      </c>
-      <c r="LU1" t="s">
-        <v>108</v>
-      </c>
-      <c r="LV1" t="s">
-        <v>133</v>
-      </c>
-      <c r="LW1" t="s">
-        <v>134</v>
-      </c>
-      <c r="LX1" t="s">
-        <v>131</v>
-      </c>
-      <c r="LY1" t="s">
-        <v>114</v>
-      </c>
-      <c r="LZ1" t="s">
-        <v>152</v>
-      </c>
-      <c r="MA1" t="s">
-        <v>151</v>
       </c>
       <c r="MB1" t="s">
         <v>21</v>
       </c>
       <c r="MC1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="MD1" t="s">
+        <v>152</v>
+      </c>
+      <c r="ME1" t="s">
         <v>153</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MF1" t="s">
         <v>154</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MG1" t="s">
         <v>155</v>
       </c>
-      <c r="MG1" t="s">
-        <v>156</v>
-      </c>
       <c r="MH1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="MI1" t="s">
         <v>9</v>
       </c>
       <c r="MJ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="MK1" t="s">
         <v>157</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="ML1" t="s">
         <v>158</v>
       </c>
-      <c r="ML1" t="s">
-        <v>159</v>
-      </c>
       <c r="MM1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:351">
@@ -2697,247 +2775,247 @@
     </row>
     <row r="3" spans="1:351" s="5" customFormat="1" ht="42.75">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AN3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO3" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AY3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AZ3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC3" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="BD3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BS3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="BT3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="BU3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV3" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BX3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CC3" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="CD3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CE3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="CF3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CG3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CH3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CI3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CJ3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CK3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CL3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CM3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CQ3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="CR3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="DC3" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="DD3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="DE3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="DF3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="DG3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="DH3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="DF3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="DG3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="DH3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="DI3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="DJ3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="DL3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DM3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DN3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="DO3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DP3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="DQ3" s="7" t="s">
         <v>13</v>
@@ -2946,187 +3024,187 @@
         <v>19</v>
       </c>
       <c r="DS3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DT3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DU3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DV3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="DZ3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="EA3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="EK3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="EL3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="EM3" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="EN3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="EO3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="EP3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="EQ3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="ER3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="ES3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="EU3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="EV3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EW3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="EX3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="EY3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EZ3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="FA3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="FB3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="FC3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FD3" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="FE3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="FI3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="FJ3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="FT3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="FU3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="FV3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FW3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="FX3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="FY3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="FZ3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="FX3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="FY3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="FZ3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="GA3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="GB3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="GD3" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="GE3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="GF3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="GG3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="GH3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="GI3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="GJ3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="GK3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="GL3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="GM3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="GN3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="GR3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="GS3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="HC3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="HD3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="HE3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="HF3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="HG3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="HH3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="HI3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="HJ3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="HK3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="HM3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="HN3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="HO3" s="5" t="s">
         <v>14</v>
@@ -3135,64 +3213,64 @@
         <v>14</v>
       </c>
       <c r="HQ3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="HR3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="HS3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="HT3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="HU3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="HW3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="IA3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="IB3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="IL3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="IM3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="IN3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="IO3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="IP3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="IQ3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="IR3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="IP3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="IQ3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="IR3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="IS3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="IT3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="IV3" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="IW3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="IX3" s="5" t="s">
         <v>14</v>
@@ -3201,64 +3279,64 @@
         <v>14</v>
       </c>
       <c r="IZ3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="JA3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="JB3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="JC3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="JD3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="JE3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="JF3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="JJ3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="JK3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="JU3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="JV3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="JW3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="JX3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="JY3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="JZ3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="KA3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="KB3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="KC3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="KE3" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="KF3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="KG3" s="5" t="s">
         <v>14</v>
@@ -3267,64 +3345,64 @@
         <v>14</v>
       </c>
       <c r="KI3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="KJ3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="KK3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="KL3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="KM3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="KN3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="KO3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="KS3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="KT3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="LD3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="LE3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="LF3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="LG3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="LH3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="LI3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="LJ3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="LH3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="LI3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="LJ3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="LK3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="LL3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="LN3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="LO3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="LP3" s="5" t="s">
         <v>14</v>
@@ -3333,31 +3411,31 @@
         <v>14</v>
       </c>
       <c r="LR3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="LS3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="LT3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="LU3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="LV3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="LW3" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="LX3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="MB3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="MC3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="MM3" s="14" t="s">
         <v>11</v>
@@ -3381,106 +3459,106 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="42.75">
       <c r="A1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="AH1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>10</v>
@@ -3488,7 +3566,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="J2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>20</v>
@@ -3514,25 +3592,25 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3542,161 +3620,231 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71997D60-9F47-4305-9365-2569E8403E09}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="57">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="57">
       <c r="A1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>259</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>178</v>
+      <c r="N1" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" ht="57">
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="57">
+      <c r="C3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="42.75">
+      <c r="W4" t="s">
         <v>294</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="57">
-      <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="X4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="57">
-      <c r="C3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="42.75">
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:29">
+      <c r="P5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="P4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="F7">
+    </row>
+    <row r="7" spans="1:29">
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="S7">
         <v>10</v>
       </c>
-      <c r="P7">
+      <c r="X7">
         <v>15</v>
       </c>
-      <c r="U7">
+      <c r="AC7">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{D078D5A2-913E-408B-8AC3-2FFBEAEB39B5}"/>
+    <hyperlink ref="X4" r:id="rId1" xr:uid="{D078D5A2-913E-408B-8AC3-2FFBEAEB39B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3715,30 +3863,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="42.75">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>33</v>
@@ -3749,10 +3897,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
@@ -3779,53 +3927,53 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="42.75">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3845,16 +3993,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="42.75">
       <c r="A1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="E1" s="13"/>
     </row>
@@ -3897,33 +4045,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>191</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>192</v>
-      </c>
-      <c r="G1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
         <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3944,12 +4092,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="42.75">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3969,16 +4117,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4024,7 +4172,7 @@
     </row>
     <row r="3" spans="1:6" ht="42.75">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4072,25 +4220,25 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4123,12 +4271,12 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="N2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="42.75">
       <c r="A3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -4146,25 +4294,25 @@
         <v>12</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4206,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57">
@@ -4217,10 +4365,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57">
@@ -4228,16 +4376,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4257,71 +4405,71 @@
   <sheetData>
     <row r="1" spans="1:14" ht="42.75">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4330,25 +4478,25 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4369,58 +4517,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4432,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40042B2-BF90-46A5-A720-AE7134173A42}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4458,109 +4606,109 @@
         <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="AL1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="AO1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>10</v>
@@ -4571,7 +4719,7 @@
     </row>
     <row r="2" spans="1:43" ht="57">
       <c r="A2" s="6" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -4586,12 +4734,12 @@
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -4599,7 +4747,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P2" s="2"/>
       <c r="AD2" s="2" t="s">
@@ -4655,99 +4803,106 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05706F7-92D1-4F40-8339-433B7AA2EF90}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="U1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>330</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -4755,12 +4910,26 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4770,107 +4939,126 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B25EE0-AB73-4E38-A477-2B1855380560}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
